--- a/r_package/testing/input/noise_niph/example_road_noise_niph_test.xlsx
+++ b/r_package/testing/input/noise_niph/example_road_noise_niph_test.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luytax\switchdrive\BEST-COST\best-cost\r_package\testing\input\noise_niph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luytax\switchdrive\BEST-COST\best-cost_WPs\r_package\testing\input\noise_niph\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BAE96C-9C7D-4090-8DBF-A98195835AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="11630" tabRatio="895" activeTab="4"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="12090" tabRatio="895" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absolute_risk_HA" sheetId="21" r:id="rId1"/>
-    <sheet name="Absolute_risk_HSD" sheetId="18" r:id="rId2"/>
-    <sheet name="geo_id_1_rr_IHD_WHO_2003a" sheetId="22" r:id="rId3"/>
-    <sheet name="geo_id_2_rr_IHD_WHO_2003a" sheetId="19" r:id="rId4"/>
-    <sheet name="geo_id_3_rr_IHD_WHO_2003a (2)" sheetId="23" r:id="rId5"/>
-    <sheet name="Relative_risk_IHD_WHO_2003b" sheetId="20" r:id="rId6"/>
+    <sheet name="Absolute_risk_HA_WS1_WP5" sheetId="24" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="25" r:id="rId3"/>
+    <sheet name="Absolute_risk_HSD" sheetId="18" r:id="rId4"/>
+    <sheet name="geo_id_1_rr_IHD_WHO_2003a" sheetId="22" r:id="rId5"/>
+    <sheet name="geo_id_2_rr_IHD_WHO_2003a" sheetId="19" r:id="rId6"/>
+    <sheet name="geo_id_3_rr_IHD_WHO_2003a (2)" sheetId="23" r:id="rId7"/>
+    <sheet name="Relative_risk_IHD_WHO_2003b" sheetId="20" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
   <si>
     <t>&lt; 55</t>
   </si>
@@ -140,11 +143,17 @@
   <si>
     <t>Prop pop exp increase</t>
   </si>
+  <si>
+    <t>number HA</t>
+  </si>
+  <si>
+    <t>prop_pop_exp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -464,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,43 +578,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -618,57 +611,61 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,11 +951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,7 +1261,545 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BAA2A8-1AEA-4C93-844A-28A4CEB1CB59}">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="113" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="23.54296875" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="29">
+        <f>E9-E8</f>
+        <v>4268785</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>57.5</v>
+      </c>
+      <c r="C3" s="48">
+        <v>327900</v>
+      </c>
+      <c r="D3" s="48">
+        <v>59600</v>
+      </c>
+      <c r="E3" s="30">
+        <f>C3+D3</f>
+        <v>387500</v>
+      </c>
+      <c r="F3" s="51">
+        <f>78.927-3.1162*B3+0.0342*B3^2</f>
+        <v>12.819250000000011</v>
+      </c>
+      <c r="G3" s="19">
+        <f>E3*F3/100</f>
+        <v>49674.593750000044</v>
+      </c>
+      <c r="H3" s="19">
+        <f>G3*0.02</f>
+        <v>993.49187500000085</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.409966145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
+        <v>62.5</v>
+      </c>
+      <c r="C4" s="48">
+        <v>236500</v>
+      </c>
+      <c r="D4" s="48">
+        <v>49500</v>
+      </c>
+      <c r="E4" s="30">
+        <f t="shared" ref="E4:E7" si="0">C4+D4</f>
+        <v>286000</v>
+      </c>
+      <c r="F4" s="51">
+        <f>78.927-3.1162*B4+0.0342*B4^2</f>
+        <v>17.75824999999999</v>
+      </c>
+      <c r="G4" s="19">
+        <f>E4*F4/100</f>
+        <v>50788.594999999972</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" ref="H4:H6" si="1">G4*0.02</f>
+        <v>1015.7718999999995</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.30258146400000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>67.5</v>
+      </c>
+      <c r="C5" s="48">
+        <v>167300</v>
+      </c>
+      <c r="D5" s="48">
+        <v>24500</v>
+      </c>
+      <c r="E5" s="30">
+        <f t="shared" si="0"/>
+        <v>191800</v>
+      </c>
+      <c r="F5" s="51">
+        <f>78.927-3.1162*B5+0.0342*B5^2</f>
+        <v>24.407250000000033</v>
+      </c>
+      <c r="G5" s="19">
+        <f>E5*F5/100</f>
+        <v>46813.105500000063</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="1"/>
+        <v>936.26211000000126</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.20292001700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
+        <v>72.5</v>
+      </c>
+      <c r="C6" s="48">
+        <v>69400</v>
+      </c>
+      <c r="D6" s="48">
+        <v>2800</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" si="0"/>
+        <v>72200</v>
+      </c>
+      <c r="F6" s="51">
+        <f>78.927-3.1162*B6+0.0342*B6^2</f>
+        <v>32.766250000000014</v>
+      </c>
+      <c r="G6" s="19">
+        <f>E6*F6/100</f>
+        <v>23657.232500000009</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" si="1"/>
+        <v>473.14465000000018</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.6385949999999994E-2</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20">
+        <v>77.5</v>
+      </c>
+      <c r="C7" s="48">
+        <v>7700</v>
+      </c>
+      <c r="D7" s="48">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" si="0"/>
+        <v>7700</v>
+      </c>
+      <c r="F7" s="51">
+        <f>78.927-3.1162*B7+0.0342*B7^2</f>
+        <v>42.835250000000002</v>
+      </c>
+      <c r="G7" s="19">
+        <f>E7*F7/100</f>
+        <v>3298.3142499999999</v>
+      </c>
+      <c r="H7" s="19">
+        <f>G7*0.02</f>
+        <v>65.966284999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8.1464239999999993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="49">
+        <f>SUM(C3:C7)</f>
+        <v>808800</v>
+      </c>
+      <c r="D8" s="49">
+        <f>SUM(D3:D7)</f>
+        <v>136400</v>
+      </c>
+      <c r="E8" s="28">
+        <f>SUM(E3:E7)</f>
+        <v>945200</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25">
+        <f>SUM(G3:G7)</f>
+        <v>174231.8410000001</v>
+      </c>
+      <c r="H8" s="26">
+        <f>G8*0.02</f>
+        <v>3484.636820000002</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50">
+        <v>5213985</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47139F8-AB47-402D-A7E6-875CE74C3AF2}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4268785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>57.5</v>
+      </c>
+      <c r="C3">
+        <v>327900</v>
+      </c>
+      <c r="D3">
+        <v>59600</v>
+      </c>
+      <c r="E3">
+        <v>387500</v>
+      </c>
+      <c r="F3">
+        <v>12.819250000000011</v>
+      </c>
+      <c r="G3">
+        <v>49674.593750000044</v>
+      </c>
+      <c r="H3">
+        <v>993.49187500000085</v>
+      </c>
+      <c r="I3">
+        <v>0.409966145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>62.5</v>
+      </c>
+      <c r="C4">
+        <v>236500</v>
+      </c>
+      <c r="D4">
+        <v>49500</v>
+      </c>
+      <c r="E4">
+        <v>286000</v>
+      </c>
+      <c r="F4">
+        <v>17.75824999999999</v>
+      </c>
+      <c r="G4">
+        <v>50788.594999999972</v>
+      </c>
+      <c r="H4">
+        <v>1015.7718999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.30258146400000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>67.5</v>
+      </c>
+      <c r="C5">
+        <v>167300</v>
+      </c>
+      <c r="D5">
+        <v>24500</v>
+      </c>
+      <c r="E5">
+        <v>191800</v>
+      </c>
+      <c r="F5">
+        <v>24.407250000000033</v>
+      </c>
+      <c r="G5">
+        <v>46813.105500000063</v>
+      </c>
+      <c r="H5">
+        <v>936.26211000000126</v>
+      </c>
+      <c r="I5">
+        <v>0.20292001700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>72.5</v>
+      </c>
+      <c r="C6">
+        <v>69400</v>
+      </c>
+      <c r="D6">
+        <v>2800</v>
+      </c>
+      <c r="E6">
+        <v>72200</v>
+      </c>
+      <c r="F6">
+        <v>32.766250000000014</v>
+      </c>
+      <c r="G6">
+        <v>23657.232500000009</v>
+      </c>
+      <c r="H6">
+        <v>473.14465000000018</v>
+      </c>
+      <c r="I6">
+        <v>7.6385949999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>77.5</v>
+      </c>
+      <c r="C7">
+        <v>7700</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>7700</v>
+      </c>
+      <c r="F7">
+        <v>42.835250000000002</v>
+      </c>
+      <c r="G7">
+        <v>3298.3142499999999</v>
+      </c>
+      <c r="H7">
+        <v>65.966284999999999</v>
+      </c>
+      <c r="I7">
+        <v>8.1464239999999993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>808800</v>
+      </c>
+      <c r="D8">
+        <v>136400</v>
+      </c>
+      <c r="E8">
+        <v>945200</v>
+      </c>
+      <c r="G8">
+        <v>174231.8410000001</v>
+      </c>
+      <c r="H8">
+        <v>3484.636820000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1538,8 +2073,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1552,395 +2087,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="N1" s="78" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="80">
         <v>53</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97">
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83">
         <f>E9-E8</f>
         <v>4268785</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="84">
         <f>E2/E9</f>
         <v>0.81871831238486492</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="85">
         <f>EXP((LN(1.08)/10)*(B2-53))</f>
         <v>1</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="86">
         <f>F2*G2</f>
         <v>0.81871831238486492</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102">
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88">
         <v>5269.46</v>
       </c>
-      <c r="M2" s="102">
+      <c r="M2" s="88">
         <v>80092.63</v>
       </c>
-      <c r="N2" s="102">
+      <c r="N2" s="88">
         <v>85362.08</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B3" s="89">
         <v>57.5</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="90">
         <v>327900</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="90">
         <v>59600</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="88">
         <f>C3+D3</f>
         <v>387500</v>
       </c>
-      <c r="F3" s="98">
+      <c r="F3" s="84">
         <f>E3/E9</f>
         <v>7.4319354581956029E-2</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="85">
         <f>EXP((LN(1.08)/10)*(B3-53))</f>
         <v>1.0352391558831511</v>
       </c>
-      <c r="H3" s="100">
+      <c r="H3" s="86">
         <f>F3*G3</f>
         <v>7.6938305903204759E-2</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="89">
         <v>62.5</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="90">
         <v>236500</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="90">
         <v>49500</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="88">
         <f t="shared" ref="E4:E7" si="0">C4+D4</f>
         <v>286000</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="84">
         <f>E4/E9</f>
         <v>5.4852478478553353E-2</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="85">
         <f t="shared" ref="G4:G7" si="1">EXP((LN(1.08)/10)*(B4-53))</f>
         <v>1.0758520895846009</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="86">
         <f t="shared" ref="H4:H7" si="2">F4*G4</f>
         <v>5.9013153590045976E-2</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="89">
         <v>67.5</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="90">
         <v>167300</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="90">
         <v>24500</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="88">
         <f t="shared" si="0"/>
         <v>191800</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="84">
         <f>E5/E9</f>
         <v>3.6785683119533334E-2</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="85">
         <f t="shared" si="1"/>
         <v>1.1180582883538033</v>
       </c>
-      <c r="H5" s="100">
+      <c r="H5" s="86">
         <f t="shared" si="2"/>
         <v>4.1128537904550837E-2</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="103">
+      <c r="B6" s="89">
         <v>72.5</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="90">
         <v>69400</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="90">
         <v>2800</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="88">
         <f t="shared" si="0"/>
         <v>72200</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="84">
         <f>E6/E9</f>
         <v>1.384737393759284E-2</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="85">
         <f t="shared" si="1"/>
         <v>1.1619202567513689</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="86">
         <f t="shared" si="2"/>
         <v>1.6089544280900085E-2</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="89">
         <v>77.5</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="90">
         <v>7700</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="90">
         <v>0</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="88">
         <f t="shared" si="0"/>
         <v>7700</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="84">
         <f>E7/E9</f>
         <v>1.4767974974995133E-3</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="85">
         <f t="shared" si="1"/>
         <v>1.2075029514221076</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="86">
         <f t="shared" si="2"/>
         <v>1.783237336883445E-3</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108">
+      <c r="B8" s="93"/>
+      <c r="C8" s="94">
         <f>SUM(C3:C7)</f>
         <v>808800</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="94">
         <f>SUM(D3:D7)</f>
         <v>136400</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="95">
         <f>SUM(E3:E7)</f>
         <v>945200</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="96">
         <f>E8/E9</f>
         <v>0.18128168761513505</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="110">
+      <c r="G8" s="93"/>
+      <c r="H8" s="96">
         <f>SUM((F2*G2+F3*G3+F4*G4+F5*G5+F6*G6+F7*G7)-1)/(F2*G2+F3*G3+F4*G4+F5*G5+F6*G6+F7*G7)*100</f>
         <v>1.3486713310095881</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="97">
         <f>L2*H8/100</f>
         <v>71.067696319017841</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="97">
         <f>M2*H8/100</f>
         <v>1080.1863390615847</v>
       </c>
-      <c r="K8" s="111">
+      <c r="K8" s="97">
         <f>I8+J8</f>
         <v>1151.2540353806025</v>
       </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="114">
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100">
         <v>5213985</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="101">
         <f>SUM(F2:F7)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1950,9 +2485,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -2010,13 +2545,13 @@
       <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="67" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2038,7 +2573,7 @@
         <f>(E2/E9) + A16</f>
         <v>0.81871831238486492</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="66">
         <f>EXP((LN(1.08)/10)*(B2-53))</f>
         <v>1.0392304845413265</v>
       </c>
@@ -2049,13 +2584,13 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="74">
+      <c r="L2" s="30">
         <v>5269.46</v>
       </c>
-      <c r="M2" s="74">
+      <c r="M2" s="30">
         <v>80092.63</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="30">
         <v>85362.08</v>
       </c>
     </row>
@@ -2081,7 +2616,7 @@
         <f xml:space="preserve"> (E3/E9) + A16</f>
         <v>7.4319354581956029E-2</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="66">
         <f>EXP((LN(1.08)/10)*(B3-53))</f>
         <v>1.0758520895846009</v>
       </c>
@@ -2115,7 +2650,7 @@
         <f xml:space="preserve"> (E4/E9) + A16</f>
         <v>5.4852478478553353E-2</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="66">
         <f t="shared" ref="G4:G7" si="1">EXP((LN(1.08)/10)*(B4-53))</f>
         <v>1.1180582883538033</v>
       </c>
@@ -2152,7 +2687,7 @@
         <f xml:space="preserve"> (E5/E9) + A16</f>
         <v>3.6785683119533334E-2</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="66">
         <f t="shared" si="1"/>
         <v>1.1619202567513689</v>
       </c>
@@ -2189,7 +2724,7 @@
         <f xml:space="preserve"> (E6/E9) + A16</f>
         <v>1.384737393759284E-2</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="66">
         <f t="shared" si="1"/>
         <v>1.2075029514221076</v>
       </c>
@@ -2223,7 +2758,7 @@
         <f xml:space="preserve"> (E7/E9) + A16</f>
         <v>1.4767974974995133E-3</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="66">
         <f t="shared" si="1"/>
         <v>1.2548738772914785</v>
       </c>
@@ -2303,103 +2838,78 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="62">
+      <c r="A12" s="11">
         <v>5</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="78"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="67">
+      <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
       <c r="B17" s="56"/>
-      <c r="C17" s="69"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="66"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="71"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2411,12 +2921,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2471,13 +2981,13 @@
       <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="67" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2499,7 +3009,7 @@
         <f>(E2/E9) + A16</f>
         <v>0.81871831238486492</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="66">
         <f>EXP((LN(1.08)/10)*(B2-53))</f>
         <v>1.08</v>
       </c>
@@ -2510,13 +3020,13 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="74">
+      <c r="L2" s="30">
         <v>5269.46</v>
       </c>
-      <c r="M2" s="74">
+      <c r="M2" s="30">
         <v>80092.63</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="30">
         <v>85362.08</v>
       </c>
     </row>
@@ -2542,7 +3052,7 @@
         <f xml:space="preserve"> (E3/E9) + A16</f>
         <v>7.4319354581956029E-2</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="66">
         <f>EXP((LN(1.08)/10)*(B3-53))</f>
         <v>1.1180582883538033</v>
       </c>
@@ -2576,7 +3086,7 @@
         <f xml:space="preserve"> (E4/E9) + A16</f>
         <v>5.4852478478553353E-2</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="66">
         <f t="shared" ref="G4:G7" si="1">EXP((LN(1.08)/10)*(B4-53))</f>
         <v>1.1619202567513689</v>
       </c>
@@ -2613,7 +3123,7 @@
         <f xml:space="preserve"> (E5/E9) + A16</f>
         <v>3.6785683119533334E-2</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="66">
         <f t="shared" si="1"/>
         <v>1.2075029514221076</v>
       </c>
@@ -2650,7 +3160,7 @@
         <f xml:space="preserve"> (E6/E9) + A16</f>
         <v>1.384737393759284E-2</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="66">
         <f t="shared" si="1"/>
         <v>1.2548738772914785</v>
       </c>
@@ -2684,7 +3194,7 @@
         <f xml:space="preserve"> (E7/E9) + A16</f>
         <v>1.4767974974995133E-3</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="66">
         <f t="shared" si="1"/>
         <v>1.3041031875358762</v>
       </c>
@@ -2764,103 +3274,78 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="62">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="78"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="67">
+      <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
       <c r="B17" s="56"/>
-      <c r="C17" s="69"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="66"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="71"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2872,9 +3357,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD14"/>
@@ -2941,13 +3426,13 @@
       <c r="N1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="67" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2968,33 +3453,33 @@
         <f>E2/E9</f>
         <v>0.81871831238486492</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="66">
         <f>EXP((LN(1.08)/10)*(B2-53))</f>
         <v>1</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="66">
         <f t="shared" ref="H2:H7" si="0">G2-1</f>
         <v>0</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="66">
         <f t="shared" ref="I2:I7" si="1">F2*H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="85">
+      <c r="J2" s="66"/>
+      <c r="K2" s="73">
         <f>F2*G2</f>
         <v>0.81871831238486492</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="74">
+      <c r="O2" s="30">
         <v>5269.46</v>
       </c>
-      <c r="P2" s="74">
+      <c r="P2" s="30">
         <v>80092.63</v>
       </c>
-      <c r="Q2" s="74">
+      <c r="Q2" s="30">
         <v>85362.08</v>
       </c>
     </row>
@@ -3019,20 +3504,20 @@
         <f>E3/E9</f>
         <v>7.4319354581956029E-2</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="66">
         <f>EXP((LN(1.08)/10)*(B3-53))</f>
         <v>1.0352391558831511</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="66">
         <f t="shared" si="0"/>
         <v>3.5239155883151074E-2</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="66">
         <f t="shared" si="1"/>
         <v>2.6189513212487264E-3</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="85">
+      <c r="J3" s="66"/>
+      <c r="K3" s="73">
         <f>F3*G3</f>
         <v>7.6938305903204759E-2</v>
       </c>
@@ -3061,20 +3546,20 @@
         <f>E4/E9</f>
         <v>5.4852478478553353E-2</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="66">
         <f t="shared" ref="G4:G7" si="3">EXP((LN(1.08)/10)*(B4-53))</f>
         <v>1.0758520895846009</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="66">
         <f t="shared" si="0"/>
         <v>7.5852089584600879E-2</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="66">
         <f t="shared" si="1"/>
         <v>4.1606751114926207E-3</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="85">
+      <c r="J4" s="66"/>
+      <c r="K4" s="73">
         <f t="shared" ref="K4:K7" si="4">F4*G4</f>
         <v>5.9013153590045976E-2</v>
       </c>
@@ -3106,20 +3591,20 @@
         <f>E5/E9</f>
         <v>3.6785683119533334E-2</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="66">
         <f t="shared" si="3"/>
         <v>1.1180582883538033</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="66">
         <f t="shared" si="0"/>
         <v>0.11805828835380328</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="66">
         <f t="shared" si="1"/>
         <v>4.3428547850174999E-3</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="85">
+      <c r="J5" s="66"/>
+      <c r="K5" s="73">
         <f t="shared" si="4"/>
         <v>4.1128537904550837E-2</v>
       </c>
@@ -3151,20 +3636,20 @@
         <f>E6/E9</f>
         <v>1.384737393759284E-2</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="66">
         <f t="shared" si="3"/>
         <v>1.1619202567513689</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="66">
         <f t="shared" si="0"/>
         <v>0.1619202567513689</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="66">
         <f t="shared" si="1"/>
         <v>2.2421703433072467E-3</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="85">
+      <c r="J6" s="66"/>
+      <c r="K6" s="73">
         <f t="shared" si="4"/>
         <v>1.6089544280900085E-2</v>
       </c>
@@ -3193,20 +3678,20 @@
         <f>E7/E9</f>
         <v>1.4767974974995133E-3</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="66">
         <f t="shared" si="3"/>
         <v>1.2075029514221076</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="66">
         <f t="shared" si="0"/>
         <v>0.20750295142210762</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="66">
         <f t="shared" si="1"/>
         <v>3.0643983938393159E-4</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="85">
+      <c r="J7" s="66"/>
+      <c r="K7" s="73">
         <f t="shared" si="4"/>
         <v>1.783237336883445E-3</v>
       </c>
@@ -3245,7 +3730,7 @@
         <f>(I8/(I8+1))*100</f>
         <v>1.3486713310096035</v>
       </c>
-      <c r="K8" s="86">
+      <c r="K8" s="74">
         <f>SUM((F2*G2+F3*G3+F4*G4+F5*G5+F6*G6+F7*G7)-1)/(F2*G2+F3*G3+F4*G4+F5*G5+F6*G6+F7*G7)*100</f>
         <v>1.3486713310095881</v>
       </c>
@@ -3299,166 +3784,98 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="78"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="64"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" s="56"/>
-      <c r="C17" s="69"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="66"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="71"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
+      <c r="C17" s="64"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="64"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="64"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="56"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="G33" s="84"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="82"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="82"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="71"/>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="82"/>
-    </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3471,42 +3888,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FHI_TopicTaxHTField xmlns="9e7c1b5f-6b93-4ee4-9fa2-fda8f1b47cf5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Støy</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8f2d7361-ae3f-42e5-b515-973ba07fa140</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Sykdomsbyrde</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1cb2573e-d91b-47cf-a8ed-abd0332371f0</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Miljø og helse</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">87be7d37-248c-4b3c-9204-980558e4f787</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Miljøeksponering</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d9196c48-ce51-47cd-b0d2-6ebc45d8709a</TermId>
-        </TermInfo>
-      </Terms>
-    </FHI_TopicTaxHTField>
-    <TaxCatchAll xmlns="e0a242cb-cec1-4671-aa99-615488d5530e">
-      <Value>15</Value>
-      <Value>10</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <TaxKeywordTaxHTField xmlns="e0a242cb-cec1-4671-aa99-615488d5530e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d23e429-547e-4a13-8b71-070d02c5a1ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3748,22 +4135,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FHI_TopicTaxHTField xmlns="9e7c1b5f-6b93-4ee4-9fa2-fda8f1b47cf5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Støy</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8f2d7361-ae3f-42e5-b515-973ba07fa140</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Sykdomsbyrde</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1cb2573e-d91b-47cf-a8ed-abd0332371f0</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Miljø og helse</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">87be7d37-248c-4b3c-9204-980558e4f787</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Miljøeksponering</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d9196c48-ce51-47cd-b0d2-6ebc45d8709a</TermId>
+        </TermInfo>
+      </Terms>
+    </FHI_TopicTaxHTField>
+    <TaxCatchAll xmlns="e0a242cb-cec1-4671-aa99-615488d5530e">
+      <Value>15</Value>
+      <Value>10</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <TaxKeywordTaxHTField xmlns="e0a242cb-cec1-4671-aa99-615488d5530e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d23e429-547e-4a13-8b71-070d02c5a1ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA136E82-55D6-4201-8C86-EA83CE955D86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44A4E13C-9AD0-4A6A-9D51-20AD50148DE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9e7c1b5f-6b93-4ee4-9fa2-fda8f1b47cf5"/>
-    <ds:schemaRef ds:uri="e0a242cb-cec1-4671-aa99-615488d5530e"/>
-    <ds:schemaRef ds:uri="9d23e429-547e-4a13-8b71-070d02c5a1ec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3789,9 +4202,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44A4E13C-9AD0-4A6A-9D51-20AD50148DE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA136E82-55D6-4201-8C86-EA83CE955D86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9e7c1b5f-6b93-4ee4-9fa2-fda8f1b47cf5"/>
+    <ds:schemaRef ds:uri="e0a242cb-cec1-4671-aa99-615488d5530e"/>
+    <ds:schemaRef ds:uri="9d23e429-547e-4a13-8b71-070d02c5a1ec"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>